--- a/Document/scenario.xlsx
+++ b/Document/scenario.xlsx
@@ -627,25 +627,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -654,7 +639,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,7 +1028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1063,7 +1065,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="21">
         <v>6</v>
       </c>
     </row>
@@ -1074,7 +1076,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1083,7 +1085,7 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1092,7 +1094,7 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1101,7 +1103,7 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1110,7 +1112,7 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1119,7 +1121,7 @@
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="21">
         <v>4</v>
       </c>
     </row>
@@ -1130,7 +1132,7 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1139,7 +1141,7 @@
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1148,7 +1150,7 @@
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="22">
         <v>4</v>
       </c>
     </row>
@@ -1159,7 +1161,7 @@
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1168,7 +1170,7 @@
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1179,7 +1181,7 @@
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -1188,7 +1190,7 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C18" s="4">
@@ -1216,42 +1218,42 @@
       <c r="A22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="20"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="24">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29">
         <v>4</v>
       </c>
       <c r="D26" s="6"/>
@@ -1260,50 +1262,50 @@
       <c r="A27" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="21">
         <v>5</v>
       </c>
       <c r="D32" s="6"/>
@@ -1312,82 +1314,82 @@
       <c r="A33" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="23"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="27">
+      <c r="C42" s="22">
         <v>4</v>
       </c>
       <c r="D42" s="18" t="s">
@@ -1398,32 +1400,32 @@
       <c r="A43" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="27"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,10 +1435,10 @@
       <c r="B47" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="26">
         <v>2</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="23" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1445,8 +1447,8 @@
         <v>80</v>
       </c>
       <c r="B48" s="25"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
@@ -1460,13 +1462,13 @@
       <c r="A51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="21">
         <v>7</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="23" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1474,35 +1476,35 @@
       <c r="A52" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="28"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="28"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="23"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B54" s="6"/>
-      <c r="C54" s="23"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="28" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="23" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1510,35 +1512,35 @@
       <c r="A56" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="28"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="28"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="23"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="6"/>
-      <c r="C58" s="23"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="23"/>
-      <c r="D59" s="28" t="s">
+      <c r="C59" s="21"/>
+      <c r="D59" s="23" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1546,17 +1548,17 @@
       <c r="A60" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="21"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="28"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="21"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="28"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
@@ -1570,10 +1572,10 @@
       <c r="A63" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="27">
+      <c r="C63" s="22">
         <v>4</v>
       </c>
       <c r="D63" s="6"/>
@@ -1582,48 +1584,48 @@
       <c r="A64" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="27"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="27"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="6"/>
     </row>
     <row r="66" spans="1:4" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="27"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="6"/>
     </row>
     <row r="67" spans="1:4" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="27"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="6"/>
     </row>
     <row r="69" spans="1:4" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="27"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="22"/>
       <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1638,10 +1640,10 @@
       <c r="A71" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="27">
+      <c r="C71" s="22">
         <v>0</v>
       </c>
       <c r="D71" s="6"/>
@@ -1650,8 +1652,8 @@
       <c r="A72" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="27"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="22"/>
       <c r="D72" s="6"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1666,10 +1668,10 @@
       <c r="A74" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="21">
         <v>1</v>
       </c>
       <c r="D74" s="6"/>
@@ -1678,8 +1680,8 @@
       <c r="A75" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="23"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="6"/>
     </row>
     <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1694,10 +1696,10 @@
       <c r="A77" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="21">
         <v>1</v>
       </c>
       <c r="D77" s="6"/>
@@ -1706,8 +1708,8 @@
       <c r="A78" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="23"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="6"/>
     </row>
     <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1719,10 +1721,10 @@
       <c r="A80" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C80" s="23">
+      <c r="C80" s="21">
         <v>1</v>
       </c>
     </row>
@@ -1730,22 +1732,22 @@
       <c r="A81" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="23"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="23"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="21"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="23"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="21"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C87">
@@ -1755,12 +1757,13 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C26:C31"/>
     <mergeCell ref="D59:D61"/>
     <mergeCell ref="D55:D57"/>
     <mergeCell ref="D51:D53"/>
@@ -1768,8 +1771,14 @@
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="C63:C69"/>
+    <mergeCell ref="C51:C61"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B63:B69"/>
-    <mergeCell ref="C51:C61"/>
     <mergeCell ref="B77:B78"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B51:B53"/>
@@ -1779,13 +1788,6 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="C26:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
